--- a/BackTest/2020-01-12 BackTest HC.xlsx
+++ b/BackTest/2020-01-12 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="J3" t="n">
         <v>1355</v>
       </c>
-      <c r="K3" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="J4" t="n">
         <v>1355</v>
       </c>
-      <c r="K4" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1355</v>
       </c>
       <c r="J5" t="n">
         <v>1355</v>
       </c>
-      <c r="K5" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,20 +605,13 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +636,19 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="J7" t="n">
         <v>1353</v>
       </c>
-      <c r="K7" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +673,23 @@
         <v>3428.250085379999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="J8" t="n">
         <v>1353</v>
       </c>
-      <c r="K8" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +714,23 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1346</v>
       </c>
       <c r="J9" t="n">
-        <v>1346</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>1353</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,24 +757,19 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1364</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>1353</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +794,21 @@
         <v>3459.360085379999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1364</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>1353</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -882,22 +835,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,26 +872,21 @@
         <v>2919.407685379999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1350</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>1353</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,22 +913,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1010,22 +952,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,22 +991,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1094,22 +1030,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,22 +1069,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1178,22 +1108,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,22 +1147,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1262,526 +1186,565 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1355</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F22" t="n">
+        <v>119.2182</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4066.133685379999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F23" t="n">
+        <v>454.73</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4066.133685379999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F24" t="n">
+        <v>645.5503</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3420.583385379999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1367</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1367</v>
+      </c>
+      <c r="F25" t="n">
+        <v>51.5161</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3369.067285379999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F26" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3432.367285379999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F27" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3432.367285379999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F28" t="n">
+        <v>90.6591</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3432.367285379999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F29" t="n">
+        <v>61.35</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3493.717285379999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1387</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3593.717285379999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3568.817285379999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1381</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3568.817285379999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F33" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3599.017285379999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1385</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1385</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3569.017285379999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1386</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F35" t="n">
+        <v>469.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4038.817285379999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1353</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1.017878228782288</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1386</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1386</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1386</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F22" t="n">
-        <v>119.2182</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1386</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1386</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1386</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F23" t="n">
-        <v>454.73</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1386</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1386</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1380</v>
-      </c>
-      <c r="F24" t="n">
-        <v>645.5503</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3420.583385379999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1380</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1367</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1380</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1367</v>
-      </c>
-      <c r="F25" t="n">
-        <v>51.5161</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3369.067285379999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1369</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1369</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1369</v>
-      </c>
-      <c r="F26" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3432.367285379999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1369</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1369</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1369</v>
-      </c>
-      <c r="F27" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3432.367285379999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1369</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1369</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1369</v>
-      </c>
-      <c r="F28" t="n">
-        <v>90.6591</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3432.367285379999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1386</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1386</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1369</v>
-      </c>
-      <c r="F29" t="n">
-        <v>61.35</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3493.717285379999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1386</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1387</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1387</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3593.717285379999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1381</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1381</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1381</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1381</v>
-      </c>
-      <c r="F31" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3568.817285379999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1381</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1381</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1381</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1381</v>
-      </c>
-      <c r="F32" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3568.817285379999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1386</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1386</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1386</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F33" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3599.017285379999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1385</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1385</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1385</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1385</v>
-      </c>
-      <c r="F34" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3569.017285379999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1386</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1386</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1386</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F35" t="n">
-        <v>469.8</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4038.817285379999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1.019390243902439</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1806,18 +1769,15 @@
         <v>4049.394485379999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1842,18 +1802,15 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,16 +1837,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1916,16 +1870,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1952,16 +1903,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1988,16 +1936,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2024,16 +1969,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2060,16 +2002,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,16 +2035,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2132,16 +2068,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,18 +2099,15 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2204,16 +2134,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2240,16 +2167,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2276,16 +2200,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2310,18 +2231,15 @@
         <v>3357.338785379999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2348,16 +2266,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2382,18 +2297,15 @@
         <v>3250.051585379999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2420,16 +2332,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2454,18 +2363,15 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2492,16 +2398,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2528,16 +2431,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2562,18 +2462,15 @@
         <v>3325.691285379999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2600,16 +2497,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2636,16 +2530,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2672,16 +2563,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2708,16 +2596,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,16 +2629,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2780,16 +2662,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2816,16 +2695,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2852,16 +2728,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2886,18 +2759,15 @@
         <v>2494.789585379999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2924,16 +2794,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2960,16 +2827,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2996,16 +2860,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3030,18 +2891,15 @@
         <v>2458.035785379999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3068,16 +2926,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3104,16 +2959,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3140,16 +2992,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3174,18 +3023,15 @@
         <v>2438.614685379999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3212,16 +3058,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3248,16 +3091,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3284,16 +3124,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3320,16 +3157,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3354,22 +3188,15 @@
         <v>202.5082853799993</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1343</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1343</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3396,22 +3223,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1343</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3438,22 +3256,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1343</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3480,16 +3289,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3516,16 +3322,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3552,16 +3355,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3588,16 +3388,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3624,16 +3421,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3660,16 +3454,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3696,16 +3487,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3732,16 +3520,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3768,16 +3553,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3804,16 +3586,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3840,16 +3619,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3876,16 +3652,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3912,16 +3685,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3948,16 +3718,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3984,16 +3751,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4020,16 +3784,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4056,16 +3817,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4092,16 +3850,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4128,16 +3883,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4164,16 +3916,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4200,16 +3949,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4236,16 +3982,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4272,16 +4015,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4308,16 +4048,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4344,16 +4081,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4380,16 +4114,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4416,18 +4147,15 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest HC.xlsx
+++ b/BackTest/2020-01-12 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1355</v>
@@ -521,7 +521,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1355</v>
@@ -562,11 +562,9 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>1355</v>
       </c>
@@ -603,7 +601,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -636,14 +634,10 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1353</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -673,14 +667,12 @@
         <v>3428.250085379999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1353</v>
       </c>
-      <c r="J8" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -714,14 +706,12 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1346</v>
       </c>
-      <c r="J9" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -755,12 +745,10 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -797,9 +785,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -836,9 +822,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -875,9 +859,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -914,9 +896,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -953,9 +933,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -992,9 +970,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1031,9 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1070,9 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1109,9 +1081,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1148,9 +1118,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1187,9 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1226,9 +1192,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1265,9 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,9 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1343,9 +1303,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1382,9 +1340,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,9 +1377,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1460,9 +1414,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1499,9 +1451,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1538,9 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1577,9 +1525,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1616,9 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1652,20 +1596,16 @@
         <v>3599.017285379999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1353</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1691,17 +1631,11 @@
         <v>3569.017285379999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1353</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1730,19 +1664,13 @@
         <v>4038.817285379999</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1353</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>1.019390243902439</v>
+        <v>1</v>
       </c>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1769,7 +1697,7 @@
         <v>4049.394485379999</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1802,7 +1730,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1835,7 +1763,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1868,7 +1796,7 @@
         <v>3927.486585379999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1901,7 +1829,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1934,7 +1862,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1967,7 +1895,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2000,7 +1928,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2033,7 +1961,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2066,7 +1994,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2099,7 +2027,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2132,7 +2060,7 @@
         <v>3426.838785379999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2165,7 +2093,7 @@
         <v>3427.338785379999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2231,7 +2159,7 @@
         <v>3357.338785379999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2297,7 +2225,7 @@
         <v>3250.051585379999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2363,7 +2291,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2462,7 +2390,7 @@
         <v>3325.691285379999</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2693,7 +2621,7 @@
         <v>2494.389585379999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2759,7 +2687,7 @@
         <v>2494.789585379999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2825,7 +2753,7 @@
         <v>2494.289585379999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2858,7 +2786,7 @@
         <v>2458.035785379999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2891,7 +2819,7 @@
         <v>2458.035785379999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2924,7 +2852,7 @@
         <v>2447.114685379999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2957,7 +2885,7 @@
         <v>2448.114685379999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2990,7 +2918,7 @@
         <v>2438.114685379999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3023,7 +2951,7 @@
         <v>2438.614685379999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3089,7 +3017,7 @@
         <v>244.0082853799993</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3122,7 +3050,7 @@
         <v>202.0082853799993</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3155,7 +3083,7 @@
         <v>202.0082853799993</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3188,7 +3116,7 @@
         <v>202.5082853799993</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4156,6 +4084,6 @@
       <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest HC.xlsx
+++ b/BackTest/2020-01-12 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1355</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1355</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1355</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,7 +583,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -634,7 +616,7 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -667,17 +649,11 @@
         <v>3428.250085379999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1353</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +682,11 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1346</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,15 +715,11 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,15 +913,11 @@
         <v>3071.407685379999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,15 +946,11 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,15 +979,11 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1012,11 @@
         <v>4066.133685379999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,16 +1474,14 @@
         <v>3599.017285379999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1631,7 +1507,7 @@
         <v>3569.017285379999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1664,7 +1540,7 @@
         <v>4038.817285379999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1697,7 +1573,7 @@
         <v>4049.394485379999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1730,7 +1606,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1763,7 +1639,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1796,7 +1672,7 @@
         <v>3927.486585379999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1829,7 +1705,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1862,7 +1738,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1895,7 +1771,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1928,7 +1804,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1961,7 +1837,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1994,7 +1870,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2060,7 +1936,7 @@
         <v>3426.838785379999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2093,7 +1969,7 @@
         <v>3427.338785379999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2621,7 +2497,7 @@
         <v>2494.389585379999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2753,7 +2629,7 @@
         <v>2494.289585379999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2786,7 +2662,7 @@
         <v>2458.035785379999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2819,7 +2695,7 @@
         <v>2458.035785379999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2852,7 +2728,7 @@
         <v>2447.114685379999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2885,7 +2761,7 @@
         <v>2448.114685379999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2918,7 +2794,7 @@
         <v>2438.114685379999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2951,7 +2827,7 @@
         <v>2438.614685379999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3017,7 +2893,7 @@
         <v>244.0082853799993</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3050,7 +2926,7 @@
         <v>202.0082853799993</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3083,7 +2959,7 @@
         <v>202.0082853799993</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3116,10 +2992,14 @@
         <v>202.5082853799993</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1343</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1343</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3152,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1343</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3185,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1343</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -4084,6 +3976,6 @@
       <c r="M108" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest HC.xlsx
+++ b/BackTest/2020-01-12 BackTest HC.xlsx
@@ -451,7 +451,7 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1355</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>3474.613985379999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1355</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>3428.650085379999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1353</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>3428.250085379999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1353</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1346</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,17 @@
         <v>3458.960085379999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +844,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +880,19 @@
         <v>2919.407685379999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1350</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +999,17 @@
         <v>3071.407685379999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,17 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1077,17 @@
         <v>3069.489085379999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1116,17 @@
         <v>4066.133685379999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,13 +1311,19 @@
         <v>3420.583385379999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1355</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>1.013450184501845</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1441,7 +1581,7 @@
         <v>3568.817285379999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1647,7 @@
         <v>3569.017285379999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1680,7 @@
         <v>4038.817285379999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1779,7 @@
         <v>4029.351985379999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1812,7 @@
         <v>3927.486585379999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1845,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1878,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1911,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1944,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1977,7 @@
         <v>3853.470985379999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2010,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2043,7 @@
         <v>3479.318785379999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2175,7 @@
         <v>3357.338785379999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2208,7 @@
         <v>3249.051585379999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2241,7 @@
         <v>3250.051585379999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2274,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2307,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2340,7 @@
         <v>2599.012085379999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2406,7 @@
         <v>3325.691285379999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2439,7 @@
         <v>3235.691285379999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2472,7 @@
         <v>3235.691285379999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2992,14 +3132,10 @@
         <v>202.5082853799993</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1343</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3032,14 +3168,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1343</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +3201,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1343</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3239,10 +3363,14 @@
         <v>-73.92721462000073</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1348</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1348</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3275,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1348</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3308,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1348</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3932,10 +4072,14 @@
         <v>-803.7814235800004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1344</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1344</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3965,11 +4109,19 @@
         <v>-803.2814235800004</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1358</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1344</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest HC.xlsx
+++ b/BackTest/2020-01-12 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>28.0836</v>
       </c>
       <c r="G2" t="n">
-        <v>3474.613985379999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>294.7064</v>
       </c>
       <c r="G3" t="n">
-        <v>3474.613985379999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1355</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>79.40000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>3474.613985379999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1355</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,19 @@
         <v>27.4153</v>
       </c>
       <c r="G5" t="n">
-        <v>3474.613985379999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1355</v>
       </c>
       <c r="I5" t="n">
         <v>1355</v>
       </c>
-      <c r="J5" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +567,23 @@
         <v>45.9639</v>
       </c>
       <c r="G6" t="n">
-        <v>3428.650085379999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1355</v>
       </c>
       <c r="I6" t="n">
         <v>1355</v>
       </c>
-      <c r="J6" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +605,23 @@
         <v>269.4588</v>
       </c>
       <c r="G7" t="n">
-        <v>3428.650085379999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1353</v>
       </c>
       <c r="I7" t="n">
-        <v>1353</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +643,23 @@
         <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3428.250085379999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1353</v>
       </c>
       <c r="I8" t="n">
-        <v>1353</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +681,23 @@
         <v>30.71</v>
       </c>
       <c r="G9" t="n">
-        <v>3458.960085379999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1346</v>
       </c>
       <c r="I9" t="n">
-        <v>1346</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,24 +719,23 @@
         <v>958.4823</v>
       </c>
       <c r="G10" t="n">
-        <v>3458.960085379999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>1364</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -799,24 +757,23 @@
         <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3459.360085379999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>1364</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,24 +795,21 @@
         <v>579.9524</v>
       </c>
       <c r="G12" t="n">
-        <v>2879.407685379999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -877,26 +831,23 @@
         <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>2919.407685379999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1350</v>
       </c>
       <c r="I13" t="n">
-        <v>1350</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>1355</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,24 +869,21 @@
         <v>108</v>
       </c>
       <c r="G14" t="n">
-        <v>3027.407685379999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +905,21 @@
         <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>3071.407685379999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +941,21 @@
         <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>3071.407685379999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +977,21 @@
         <v>1.9186</v>
       </c>
       <c r="G17" t="n">
-        <v>3069.489085379999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +1013,21 @@
         <v>31.5</v>
       </c>
       <c r="G18" t="n">
-        <v>3069.489085379999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1049,21 @@
         <v>996.6446</v>
       </c>
       <c r="G19" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1085,21 @@
         <v>35.8</v>
       </c>
       <c r="G20" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1191,24 +1121,21 @@
         <v>722.2922</v>
       </c>
       <c r="G21" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,24 +1157,21 @@
         <v>119.2182</v>
       </c>
       <c r="G22" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,24 +1193,21 @@
         <v>454.73</v>
       </c>
       <c r="G23" t="n">
-        <v>4066.133685379999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,24 +1229,21 @@
         <v>645.5503</v>
       </c>
       <c r="G24" t="n">
-        <v>3420.583385379999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1355</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1.013450184501845</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1347,18 +1265,21 @@
         <v>51.5161</v>
       </c>
       <c r="G25" t="n">
-        <v>3369.067285379999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1380,18 +1301,21 @@
         <v>63.3</v>
       </c>
       <c r="G26" t="n">
-        <v>3432.367285379999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1413,18 +1337,21 @@
         <v>21.88</v>
       </c>
       <c r="G27" t="n">
-        <v>3432.367285379999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,18 +1373,21 @@
         <v>90.6591</v>
       </c>
       <c r="G28" t="n">
-        <v>3432.367285379999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1479,18 +1409,21 @@
         <v>61.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3493.717285379999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1512,18 +1445,21 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>3593.717285379999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1545,18 +1481,21 @@
         <v>24.9</v>
       </c>
       <c r="G31" t="n">
-        <v>3568.817285379999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1578,18 +1517,21 @@
         <v>25.1</v>
       </c>
       <c r="G32" t="n">
-        <v>3568.817285379999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1611,18 +1553,21 @@
         <v>30.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3599.017285379999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,18 +1589,21 @@
         <v>30</v>
       </c>
       <c r="G34" t="n">
-        <v>3569.017285379999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1677,18 +1625,21 @@
         <v>469.8</v>
       </c>
       <c r="G35" t="n">
-        <v>4038.817285379999</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1355</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1.017878228782288</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1710,18 +1661,15 @@
         <v>10.5772</v>
       </c>
       <c r="G36" t="n">
-        <v>4049.394485379999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1743,18 +1691,15 @@
         <v>20.0425</v>
       </c>
       <c r="G37" t="n">
-        <v>4029.351985379999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1776,18 +1721,15 @@
         <v>26.9853</v>
       </c>
       <c r="G38" t="n">
-        <v>4029.351985379999</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1809,18 +1751,15 @@
         <v>101.8654</v>
       </c>
       <c r="G39" t="n">
-        <v>3927.486585379999</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,18 +1781,15 @@
         <v>74.01560000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>3853.470985379999</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1875,18 +1811,15 @@
         <v>312.9265</v>
       </c>
       <c r="G41" t="n">
-        <v>3853.470985379999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1908,18 +1841,15 @@
         <v>818.6885</v>
       </c>
       <c r="G42" t="n">
-        <v>3853.470985379999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1941,18 +1871,15 @@
         <v>434.3782</v>
       </c>
       <c r="G43" t="n">
-        <v>3853.470985379999</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1974,18 +1901,15 @@
         <v>459.8469</v>
       </c>
       <c r="G44" t="n">
-        <v>3853.470985379999</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2007,18 +1931,15 @@
         <v>374.1522</v>
       </c>
       <c r="G45" t="n">
-        <v>3479.318785379999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1961,15 @@
         <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>3479.318785379999</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2073,18 +1991,15 @@
         <v>52.48</v>
       </c>
       <c r="G47" t="n">
-        <v>3426.838785379999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2106,18 +2021,15 @@
         <v>0.5</v>
       </c>
       <c r="G48" t="n">
-        <v>3427.338785379999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2139,18 +2051,15 @@
         <v>70</v>
       </c>
       <c r="G49" t="n">
-        <v>3357.338785379999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2172,18 +2081,15 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>3357.338785379999</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2205,18 +2111,15 @@
         <v>108.2872</v>
       </c>
       <c r="G51" t="n">
-        <v>3249.051585379999</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2238,18 +2141,15 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>3250.051585379999</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2271,18 +2171,15 @@
         <v>651.0395</v>
       </c>
       <c r="G53" t="n">
-        <v>2599.012085379999</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2304,18 +2201,15 @@
         <v>89.718</v>
       </c>
       <c r="G54" t="n">
-        <v>2599.012085379999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2337,18 +2231,15 @@
         <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>2599.012085379999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2370,18 +2261,15 @@
         <v>0.4</v>
       </c>
       <c r="G56" t="n">
-        <v>2599.412085379999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2403,18 +2291,15 @@
         <v>726.2791999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>3325.691285379999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2436,18 +2321,15 @@
         <v>90</v>
       </c>
       <c r="G58" t="n">
-        <v>3235.691285379999</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2469,18 +2351,15 @@
         <v>32.2</v>
       </c>
       <c r="G59" t="n">
-        <v>3235.691285379999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2502,18 +2381,15 @@
         <v>19.38</v>
       </c>
       <c r="G60" t="n">
-        <v>3235.691285379999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2535,18 +2411,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>3225.691285379999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2568,18 +2441,15 @@
         <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>3225.691285379999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2601,18 +2471,15 @@
         <v>37.4</v>
       </c>
       <c r="G63" t="n">
-        <v>3225.691285379999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2634,18 +2501,15 @@
         <v>731.3017</v>
       </c>
       <c r="G64" t="n">
-        <v>2494.389585379999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,18 +2531,15 @@
         <v>0.5</v>
       </c>
       <c r="G65" t="n">
-        <v>2494.389585379999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2700,18 +2561,15 @@
         <v>0.4</v>
       </c>
       <c r="G66" t="n">
-        <v>2494.789585379999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2733,18 +2591,15 @@
         <v>0.5</v>
       </c>
       <c r="G67" t="n">
-        <v>2494.289585379999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2766,18 +2621,15 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>2494.289585379999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2799,18 +2651,15 @@
         <v>36.2538</v>
       </c>
       <c r="G69" t="n">
-        <v>2458.035785379999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2832,18 +2681,15 @@
         <v>46.2538</v>
       </c>
       <c r="G70" t="n">
-        <v>2458.035785379999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2865,18 +2711,15 @@
         <v>10.9211</v>
       </c>
       <c r="G71" t="n">
-        <v>2447.114685379999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,18 +2741,15 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>2448.114685379999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2931,18 +2771,15 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>2438.114685379999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2964,18 +2801,15 @@
         <v>0.5</v>
       </c>
       <c r="G74" t="n">
-        <v>2438.614685379999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2997,18 +2831,15 @@
         <v>2217.3664</v>
       </c>
       <c r="G75" t="n">
-        <v>221.2482853799993</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3030,18 +2861,15 @@
         <v>22.76</v>
       </c>
       <c r="G76" t="n">
-        <v>244.0082853799993</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3063,18 +2891,15 @@
         <v>42</v>
       </c>
       <c r="G77" t="n">
-        <v>202.0082853799993</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3096,18 +2921,15 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>202.0082853799993</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3129,18 +2951,19 @@
         <v>0.5</v>
       </c>
       <c r="G79" t="n">
-        <v>202.5082853799993</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1343</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1343</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3162,18 +2985,21 @@
         <v>24.59</v>
       </c>
       <c r="G80" t="n">
-        <v>177.9182853799993</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1343</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3195,18 +3021,21 @@
         <v>185.8621</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.943814620000722</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1343</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3228,18 +3057,15 @@
         <v>10.5</v>
       </c>
       <c r="G82" t="n">
-        <v>2.556185379999278</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3261,18 +3087,15 @@
         <v>15</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.44381462000072</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3294,18 +3117,15 @@
         <v>27.0481</v>
       </c>
       <c r="G84" t="n">
-        <v>-39.49191462000073</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3327,18 +3147,15 @@
         <v>34.9353</v>
       </c>
       <c r="G85" t="n">
-        <v>-74.42721462000073</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3360,22 +3177,15 @@
         <v>0.5</v>
       </c>
       <c r="G86" t="n">
-        <v>-73.92721462000073</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1348</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1348</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3397,24 +3207,15 @@
         <v>35.75</v>
       </c>
       <c r="G87" t="n">
-        <v>-73.92721462000073</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1348</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3436,24 +3237,15 @@
         <v>37.4</v>
       </c>
       <c r="G88" t="n">
-        <v>-73.92721462000073</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1348</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3475,18 +3267,15 @@
         <v>38.93</v>
       </c>
       <c r="G89" t="n">
-        <v>-73.92721462000073</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3508,18 +3297,15 @@
         <v>24</v>
       </c>
       <c r="G90" t="n">
-        <v>-49.92721462000073</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3541,18 +3327,15 @@
         <v>88.0913</v>
       </c>
       <c r="G91" t="n">
-        <v>-138.0185146200007</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3574,18 +3357,15 @@
         <v>8.639900000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-129.3786146200007</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3607,18 +3387,15 @@
         <v>3958.63479395</v>
       </c>
       <c r="G93" t="n">
-        <v>3829.256179329999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3640,18 +3417,15 @@
         <v>3958.6348</v>
       </c>
       <c r="G94" t="n">
-        <v>-129.3786206700006</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3673,18 +3447,15 @@
         <v>0.5</v>
       </c>
       <c r="G95" t="n">
-        <v>-128.8786206700006</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3706,18 +3477,15 @@
         <v>41.2</v>
       </c>
       <c r="G96" t="n">
-        <v>-170.0786206700006</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3739,18 +3507,15 @@
         <v>0.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-169.5786206700006</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3772,18 +3537,15 @@
         <v>3791.09799709</v>
       </c>
       <c r="G98" t="n">
-        <v>3621.519376419999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3805,18 +3567,15 @@
         <v>154.0787</v>
       </c>
       <c r="G99" t="n">
-        <v>3467.440676419999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3838,18 +3597,15 @@
         <v>35.8097</v>
       </c>
       <c r="G100" t="n">
-        <v>3431.63097642</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3871,18 +3627,15 @@
         <v>0.5</v>
       </c>
       <c r="G101" t="n">
-        <v>3432.13097642</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3904,18 +3657,15 @@
         <v>3791.098</v>
       </c>
       <c r="G102" t="n">
-        <v>-358.9670235800004</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3937,18 +3687,15 @@
         <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>-356.9670235800004</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3970,18 +3717,15 @@
         <v>491.8</v>
       </c>
       <c r="G104" t="n">
-        <v>-848.7670235800003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4003,18 +3747,15 @@
         <v>23.9</v>
       </c>
       <c r="G105" t="n">
-        <v>-824.8670235800004</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4036,18 +3777,15 @@
         <v>0.4</v>
       </c>
       <c r="G106" t="n">
-        <v>-825.2670235800003</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4069,22 +3807,15 @@
         <v>21.4856</v>
       </c>
       <c r="G107" t="n">
-        <v>-803.7814235800004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1344</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1344</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4106,26 +3837,15 @@
         <v>0.5</v>
       </c>
       <c r="G108" t="n">
-        <v>-803.2814235800004</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1358</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1344</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
